--- a/resultados/otimizados3.xlsx
+++ b/resultados/otimizados3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,19 +507,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7600</v>
+        <v>52200</v>
       </c>
       <c r="B2" t="n">
-        <v>306</v>
+        <v>6940</v>
       </c>
       <c r="C2" t="n">
-        <v>1603</v>
+        <v>11092</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>7906</v>
+        <v>59140</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -527,45 +527,45 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7906</v>
+        <v>42312.59077561063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.2845351576663737</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2845351576663737</v>
       </c>
       <c r="J2" t="n">
-        <v>0.125</v>
+        <v>10.04700000000048</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="L2" t="n">
-        <v>73.3974358974359</v>
+        <v>62.03579418344519</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>7906</v>
+        <v>59140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7600</v>
+        <v>41400</v>
       </c>
       <c r="B3" t="n">
-        <v>306</v>
+        <v>8112</v>
       </c>
       <c r="C3" t="n">
-        <v>1603</v>
+        <v>10572</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>7906</v>
+        <v>49512</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -573,45 +573,45 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7905.90626918607</v>
+        <v>40898.72404139917</v>
       </c>
       <c r="H3" t="n">
-        <v>1.18556556956805e-05</v>
+        <v>0.1739634019752952</v>
       </c>
       <c r="I3" t="n">
-        <v>1.18556556956805e-05</v>
+        <v>0.1739634019752952</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04699999999957072</v>
+        <v>10.03100000000086</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="L3" t="n">
-        <v>73.3974358974359</v>
+        <v>79.01345291479821</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>7906</v>
+        <v>49512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7600</v>
+        <v>31600</v>
       </c>
       <c r="B4" t="n">
-        <v>306</v>
+        <v>10064</v>
       </c>
       <c r="C4" t="n">
-        <v>1603</v>
+        <v>9962</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>7906</v>
+        <v>41664</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -619,45 +619,45 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7905.90626918607</v>
+        <v>39263.53028972958</v>
       </c>
       <c r="H4" t="n">
-        <v>1.18556556956805e-05</v>
+        <v>0.05761496040395587</v>
       </c>
       <c r="I4" t="n">
-        <v>1.18556556956805e-05</v>
+        <v>0.05761496040395587</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06199999999989814</v>
+        <v>10.01500000000124</v>
       </c>
       <c r="K4" t="n">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>73.3974358974359</v>
+        <v>74.45440956651719</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>7906</v>
+        <v>41664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7600</v>
+        <v>31600</v>
       </c>
       <c r="B5" t="n">
-        <v>306</v>
+        <v>10064</v>
       </c>
       <c r="C5" t="n">
-        <v>1603</v>
+        <v>9962</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>7906</v>
+        <v>41664</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -665,45 +665,45 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7905.90626918607</v>
+        <v>39263.53028972958</v>
       </c>
       <c r="H5" t="n">
-        <v>1.18556556956805e-05</v>
+        <v>0.05761496040395587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.18556556956805e-05</v>
+        <v>0.05761496040395587</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06300000000010186</v>
+        <v>10.01499999999942</v>
       </c>
       <c r="K5" t="n">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="L5" t="n">
-        <v>73.3974358974359</v>
+        <v>74.45440956651719</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>7906</v>
+        <v>41708</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4600</v>
+        <v>31600</v>
       </c>
       <c r="B6" t="n">
-        <v>1552</v>
+        <v>10064</v>
       </c>
       <c r="C6" t="n">
-        <v>1453</v>
+        <v>9962</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>6152</v>
+        <v>41664</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -711,45 +711,45 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6152</v>
+        <v>39263.53028972958</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.05761496040395587</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.05761496040395587</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.03099999999904</v>
       </c>
       <c r="K6" t="n">
-        <v>889</v>
+        <v>223</v>
       </c>
       <c r="L6" t="n">
-        <v>27.24034495688039</v>
+        <v>74.45440956651719</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>6152</v>
+        <v>41664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4600</v>
+        <v>29200</v>
       </c>
       <c r="B7" t="n">
-        <v>1552</v>
+        <v>10664</v>
       </c>
       <c r="C7" t="n">
-        <v>1453</v>
+        <v>9862</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>6152</v>
+        <v>39864</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -757,45 +757,45 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6152</v>
+        <v>39860.33333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.197939661527965e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.197939661527965e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0160000000000764</v>
+        <v>7.95299999999952</v>
       </c>
       <c r="K7" t="n">
-        <v>889</v>
+        <v>445</v>
       </c>
       <c r="L7" t="n">
-        <v>27.24034495688039</v>
+        <v>73.87265917602996</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>6152</v>
+        <v>39864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4600</v>
+        <v>28400</v>
       </c>
       <c r="B8" t="n">
-        <v>1552</v>
+        <v>11296</v>
       </c>
       <c r="C8" t="n">
-        <v>1453</v>
+        <v>9812</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>6152</v>
+        <v>39696</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -803,45 +803,45 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6152</v>
+        <v>39684.06022211612</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0003007803779696416</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0003007803779696416</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.01500000000124</v>
       </c>
       <c r="K8" t="n">
-        <v>889</v>
+        <v>445</v>
       </c>
       <c r="L8" t="n">
-        <v>27.24034495688039</v>
+        <v>73.49812734082397</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>6152</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4600</v>
+        <v>28400</v>
       </c>
       <c r="B9" t="n">
-        <v>1552</v>
+        <v>11296</v>
       </c>
       <c r="C9" t="n">
-        <v>1453</v>
+        <v>9812</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>6152</v>
+        <v>39696</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -849,45 +849,45 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6152</v>
+        <v>39622.53846153846</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.001850603044678024</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.001850603044678024</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.01600000000144</v>
       </c>
       <c r="K9" t="n">
-        <v>889</v>
+        <v>445</v>
       </c>
       <c r="L9" t="n">
-        <v>27.24034495688039</v>
+        <v>73.49812734082397</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>6152</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4600</v>
+        <v>28400</v>
       </c>
       <c r="B10" t="n">
-        <v>1552</v>
+        <v>11296</v>
       </c>
       <c r="C10" t="n">
-        <v>1453</v>
+        <v>9812</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>6152</v>
+        <v>39696</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -895,488 +895,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6152</v>
+        <v>39642.53543307087</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.001346850235014479</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.001346850235014479</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.09400000000096</v>
       </c>
       <c r="K10" t="n">
-        <v>889</v>
+        <v>445</v>
       </c>
       <c r="L10" t="n">
-        <v>27.24034495688039</v>
+        <v>73.49812734082397</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>889</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13.62017247844019</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0160000000000764</v>
-      </c>
-      <c r="K12" t="n">
-        <v>889</v>
-      </c>
-      <c r="L12" t="n">
-        <v>13.62017247844019</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>889</v>
-      </c>
-      <c r="L13" t="n">
-        <v>13.62017247844019</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>889</v>
-      </c>
-      <c r="L14" t="n">
-        <v>13.62017247844019</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>889</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13.62017247844019</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>889</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.810086239220097</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>889</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.810086239220097</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>889</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.810086239220097</v>
-      </c>
-      <c r="M18" t="n">
-        <v>8</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0160000000000764</v>
-      </c>
-      <c r="K19" t="n">
-        <v>889</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.810086239220097</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4600</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1552</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1453</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6152</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>F1.DAT</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>6152</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>889</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.810086239220097</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6152</v>
+        <v>39696</v>
       </c>
     </row>
   </sheetData>
